--- a/Exceptions_Screenshots/ScreenerReport.xlsx
+++ b/Exceptions_Screenshots/ScreenerReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Company Code</x:t>
   </x:si>
@@ -40,7 +40,7 @@
     <x:t>Wipro Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 386,320 Cr.</x:t>
+    <x:t>₹ 308,461 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 2.00</x:t>
@@ -58,7 +58,7 @@
     <x:t>Indian Overseas Bank</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 38,939 Cr.</x:t>
+    <x:t>₹ 38,372 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 10.0</x:t>
@@ -82,7 +82,7 @@
     <x:t>ICICI Bank Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 541,379 Cr.</x:t>
+    <x:t>₹ 552,371 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 227</x:t>
@@ -94,7 +94,7 @@
     <x:t>Tata Motors Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 173,369 Cr.</x:t>
+    <x:t>₹ 173,189 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 135</x:t>
@@ -109,7 +109,7 @@
     <x:t>Oil &amp; Natural Gas Corpn Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 187,760 Cr.</x:t>
+    <x:t>₹ 207,386 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 5.00</x:t>
@@ -124,7 +124,7 @@
     <x:t>Ashok Leyland Ltd</x:t>
   </x:si>
   <x:si>
-    <x:t>₹ 38,382 Cr.</x:t>
+    <x:t>₹ 38,015 Cr.</x:t>
   </x:si>
   <x:si>
     <x:t>₹ 1.00</x:t>
@@ -136,16 +136,7 @@
     <x:t>INFINIX</x:t>
   </x:si>
   <x:si>
-    <x:t>ASIANPAINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asian Paints Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 334,251 Cr.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹ 130</x:t>
+    <x:t>SLICE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -707,19 +698,19 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
